--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="206" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="206" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Красно-черное" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="9">
   <si>
     <t>Добавление</t>
   </si>
@@ -29,6 +29,18 @@
   </si>
   <si>
     <t>Диапазон вставляемых чисел от 0 до 100000000 (стомильонов)(int)</t>
+  </si>
+  <si>
+    <t>Все числа генерируются случайным образом</t>
+  </si>
+  <si>
+    <t>Поиск 10% элементов(каждого 10)</t>
+  </si>
+  <si>
+    <t>Поиск 25% элементов(каждого 4)</t>
+  </si>
+  <si>
+    <t>Поиск 50% элементов(каждого 2)</t>
   </si>
   <si>
     <t>Диапазон вставляемых чисел от 0 до 100000000 (int)</t>
@@ -46,6 +58,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -67,6 +80,7 @@
       <color rgb="FF3C3C3C"/>
       <name val="Ubuntu"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -201,18 +215,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9744897959184"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.5918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4183673469388"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.5051020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.5510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="60.2959183673469"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -240,6 +254,9 @@
       <c r="C2" s="0" t="n">
         <v>30</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -282,6 +299,204 @@
         <v>16813</v>
       </c>
       <c r="C6" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>500000</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>456</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1222</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>500000</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>203</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>1495</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>5438</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>500000</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>384</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>2840</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>7734</v>
+      </c>
+      <c r="C33" s="0" t="n">
         <v>3</v>
       </c>
     </row>
@@ -301,18 +516,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.5918367346939"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.280612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.9234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.5357142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.4030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -326,7 +542,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -339,6 +555,9 @@
       <c r="C2" s="0" t="n">
         <v>30</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -384,10 +603,208 @@
         <v>3</v>
       </c>
     </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>500000</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>514</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>949</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>500000</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>1026</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>3979</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>500000</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>340</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>2472</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>5648</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
@@ -400,18 +817,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8367346938776"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.0663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4183673469388"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.2397959183674"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -425,7 +843,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -438,6 +856,9 @@
       <c r="C2" s="0" t="n">
         <v>30</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -483,10 +904,211 @@
         <v>3</v>
       </c>
     </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>500000</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>778</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1707</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>500000</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>1885</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>4276</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>500000</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>519</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>3795</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>8529</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
